--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/总产出.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/总产出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,479 +528,286 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89257895.0138969</v>
+        <v>494952711.955426</v>
       </c>
       <c r="C2" t="n">
-        <v>144218957.593017</v>
+        <v>912863078.44258</v>
       </c>
       <c r="D2" t="n">
-        <v>264482669.860909</v>
+        <v>693198000</v>
       </c>
       <c r="E2" t="n">
-        <v>215871882.651944</v>
+        <v>932510585.250119</v>
       </c>
       <c r="F2" t="n">
-        <v>221570467.397738</v>
+        <v>1023433007.71762</v>
       </c>
       <c r="G2" t="n">
-        <v>2575527831.49567</v>
+        <v>12526448720.9322</v>
       </c>
       <c r="H2" t="n">
-        <v>110427373.112852</v>
+        <v>518947738.88005</v>
       </c>
       <c r="I2" t="n">
-        <v>169342750.095699</v>
+        <v>646944042.304543</v>
       </c>
       <c r="J2" t="n">
-        <v>416297688.060152</v>
+        <v>2345737070.91639</v>
       </c>
       <c r="K2" t="n">
-        <v>83211417.2383159</v>
+        <v>301486097.232788</v>
       </c>
       <c r="L2" t="n">
-        <v>85232150.47579651</v>
+        <v>477306939.799391</v>
       </c>
       <c r="M2" t="n">
-        <v>170892098.268161</v>
+        <v>567717977.389044</v>
       </c>
       <c r="N2" t="n">
-        <v>105707978.729791</v>
+        <v>661343668.186574</v>
       </c>
       <c r="O2" t="n">
-        <v>80837463.7338849</v>
+        <v>486392588.834822</v>
       </c>
       <c r="P2" t="n">
-        <v>157266045.073246</v>
+        <v>1065785795.3711</v>
       </c>
       <c r="Q2" t="n">
-        <v>51651589.7691475</v>
+        <v>322865825.537</v>
       </c>
       <c r="R2" t="n">
-        <v>62751301.1333895</v>
+        <v>400640738.766875</v>
       </c>
       <c r="S2" t="n">
-        <v>146508103.287729</v>
+        <v>674322854.347832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138916352.671387</v>
+        <v>557804723.237175</v>
       </c>
       <c r="C3" t="n">
-        <v>307507063.721027</v>
+        <v>1302604671.09095</v>
       </c>
       <c r="D3" t="n">
-        <v>285787422.989725</v>
+        <v>894213473.191527</v>
       </c>
       <c r="E3" t="n">
-        <v>215726168.166462</v>
+        <v>1210245787.87551</v>
       </c>
       <c r="F3" t="n">
-        <v>281326817.295279</v>
+        <v>1386125871.74766</v>
       </c>
       <c r="G3" t="n">
-        <v>3134305016.85856</v>
+        <v>16016270834.4107</v>
       </c>
       <c r="H3" t="n">
-        <v>173306319.334314</v>
+        <v>763137290.618104</v>
       </c>
       <c r="I3" t="n">
-        <v>242910018.084582</v>
+        <v>954898297.202534</v>
       </c>
       <c r="J3" t="n">
-        <v>444322891.409176</v>
+        <v>2583436487.47989</v>
       </c>
       <c r="K3" t="n">
-        <v>64483952.190134</v>
+        <v>431360192.331024</v>
       </c>
       <c r="L3" t="n">
-        <v>84781571.09172</v>
+        <v>503944452.381436</v>
       </c>
       <c r="M3" t="n">
-        <v>156354358.234318</v>
+        <v>662820783.770474</v>
       </c>
       <c r="N3" t="n">
-        <v>146064292.101843</v>
+        <v>870517515.273177</v>
       </c>
       <c r="O3" t="n">
-        <v>103171891.024155</v>
+        <v>535980969.001036</v>
       </c>
       <c r="P3" t="n">
-        <v>213653417.958036</v>
+        <v>1423397994.81911</v>
       </c>
       <c r="Q3" t="n">
-        <v>73139315.5002034</v>
+        <v>590140254.289307</v>
       </c>
       <c r="R3" t="n">
-        <v>58045337.1744104</v>
+        <v>466046232.057356</v>
       </c>
       <c r="S3" t="n">
-        <v>144807827.911793</v>
+        <v>879595838.044386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218409736.732517</v>
+        <v>745169657.94508</v>
       </c>
       <c r="C4" t="n">
-        <v>484558224.453657</v>
+        <v>1798474978.07108</v>
       </c>
       <c r="D4" t="n">
-        <v>393566962.496529</v>
+        <v>1070563648.68972</v>
       </c>
       <c r="E4" t="n">
-        <v>400316692.631975</v>
+        <v>1562054667.2793</v>
       </c>
       <c r="F4" t="n">
-        <v>425643566.417028</v>
+        <v>2019037211.45374</v>
       </c>
       <c r="G4" t="n">
-        <v>5467647076.63632</v>
+        <v>20814465144.4975</v>
       </c>
       <c r="H4" t="n">
-        <v>205765574.10872</v>
+        <v>1185196222.09571</v>
       </c>
       <c r="I4" t="n">
-        <v>340898949.752159</v>
+        <v>1350975667.52376</v>
       </c>
       <c r="J4" t="n">
-        <v>908864181.26649</v>
+        <v>3237532701.43116</v>
       </c>
       <c r="K4" t="n">
-        <v>133644986.769488</v>
+        <v>442442394.851974</v>
       </c>
       <c r="L4" t="n">
-        <v>194181865.01819</v>
+        <v>615101423.509997</v>
       </c>
       <c r="M4" t="n">
-        <v>280820100.76656</v>
+        <v>834957533.6614439</v>
       </c>
       <c r="N4" t="n">
-        <v>350611486.089967</v>
+        <v>1193191609.79384</v>
       </c>
       <c r="O4" t="n">
-        <v>194703333.793369</v>
+        <v>538352109.434191</v>
       </c>
       <c r="P4" t="n">
-        <v>420664813.443922</v>
+        <v>1551854604.54193</v>
       </c>
       <c r="Q4" t="n">
-        <v>102616150.812277</v>
+        <v>882407185.025851</v>
       </c>
       <c r="R4" t="n">
-        <v>153602496.267033</v>
+        <v>642897137.42153</v>
       </c>
       <c r="S4" t="n">
-        <v>258777955.816439</v>
+        <v>1144256391.76723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>364763391.982445</v>
+        <v>118357529.096166</v>
       </c>
       <c r="C5" t="n">
-        <v>602356181.79487</v>
+        <v>2936423794.97406</v>
       </c>
       <c r="D5" t="n">
-        <v>488929999.906421</v>
-      </c>
-      <c r="E5" t="n">
-        <v>619980925.832371</v>
-      </c>
+        <v>1101240339.56656</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>627217352.10778</v>
+        <v>2287859273.51028</v>
       </c>
       <c r="G5" t="n">
-        <v>8188589620.15938</v>
-      </c>
-      <c r="H5" t="n">
-        <v>265592041.64755</v>
-      </c>
-      <c r="I5" t="n">
-        <v>436479767.811398</v>
-      </c>
+        <v>22577335292.3594</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>1456899652.83944</v>
+        <v>3309824388.27577</v>
       </c>
       <c r="K5" t="n">
-        <v>221828537.609747</v>
+        <v>1866525446.42063</v>
       </c>
       <c r="L5" t="n">
-        <v>326648146.102665</v>
+        <v>634986429.7848229</v>
       </c>
       <c r="M5" t="n">
-        <v>432699283.108018</v>
-      </c>
-      <c r="N5" t="n">
-        <v>424612908.130587</v>
-      </c>
+        <v>757438910.354255</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>291808994.493842</v>
+        <v>541862961.949453</v>
       </c>
       <c r="P5" t="n">
-        <v>788014509.303815</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>194810240.058876</v>
-      </c>
+        <v>1474812341.9127</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>228043740.330725</v>
+        <v>649457466.78087</v>
       </c>
       <c r="S5" t="n">
-        <v>417903946.653897</v>
+        <v>1262076278.99826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>494952711.955426</v>
+        <v>164181553.680022</v>
       </c>
       <c r="C6" t="n">
-        <v>912863078.44258</v>
+        <v>3790999303.43253</v>
       </c>
       <c r="D6" t="n">
-        <v>693198000</v>
-      </c>
-      <c r="E6" t="n">
-        <v>932510585.250119</v>
-      </c>
+        <v>1331683250.27097</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1023433007.71762</v>
+        <v>2860304981.41469</v>
       </c>
       <c r="G6" t="n">
-        <v>12526448720.9322</v>
-      </c>
-      <c r="H6" t="n">
-        <v>518947738.88005</v>
-      </c>
-      <c r="I6" t="n">
-        <v>646944042.304543</v>
-      </c>
+        <v>26990278045.4323</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>2345737070.91639</v>
+        <v>3668921660.99905</v>
       </c>
       <c r="K6" t="n">
-        <v>301486097.232788</v>
+        <v>1922677593.56453</v>
       </c>
       <c r="L6" t="n">
-        <v>477306939.799391</v>
+        <v>821452123.004553</v>
       </c>
       <c r="M6" t="n">
-        <v>567717977.389044</v>
-      </c>
-      <c r="N6" t="n">
-        <v>661343668.186574</v>
-      </c>
+        <v>757386926.81411</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>486392588.834822</v>
+        <v>556533552.939994</v>
       </c>
       <c r="P6" t="n">
-        <v>1065785795.3711</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>322865825.537</v>
-      </c>
+        <v>1727661637.78313</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>400640738.766875</v>
+        <v>733031886.5509059</v>
       </c>
       <c r="S6" t="n">
-        <v>674322854.347832</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>557804723.237175</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1302604671.09095</v>
-      </c>
-      <c r="D7" t="n">
-        <v>894213473.191527</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1210245787.87551</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1386125871.74766</v>
-      </c>
-      <c r="G7" t="n">
-        <v>16016270834.4107</v>
-      </c>
-      <c r="H7" t="n">
-        <v>763137290.618104</v>
-      </c>
-      <c r="I7" t="n">
-        <v>954898297.202534</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2583436487.47989</v>
-      </c>
-      <c r="K7" t="n">
-        <v>431360192.331024</v>
-      </c>
-      <c r="L7" t="n">
-        <v>503944452.381436</v>
-      </c>
-      <c r="M7" t="n">
-        <v>662820783.770474</v>
-      </c>
-      <c r="N7" t="n">
-        <v>870517515.273177</v>
-      </c>
-      <c r="O7" t="n">
-        <v>535980969.001036</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1423397994.81911</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>590140254.289307</v>
-      </c>
-      <c r="R7" t="n">
-        <v>466046232.057356</v>
-      </c>
-      <c r="S7" t="n">
-        <v>879595838.044386</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>745169657.94508</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1798474978.07108</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1070563648.68972</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1562054667.2793</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2019037211.45374</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20814465144.4975</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1185196222.09571</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1350975667.52376</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3237532701.43116</v>
-      </c>
-      <c r="K8" t="n">
-        <v>442442394.851974</v>
-      </c>
-      <c r="L8" t="n">
-        <v>615101423.509997</v>
-      </c>
-      <c r="M8" t="n">
-        <v>834957533.6614439</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1193191609.79384</v>
-      </c>
-      <c r="O8" t="n">
-        <v>538352109.434191</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1551854604.54193</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>882407185.025851</v>
-      </c>
-      <c r="R8" t="n">
-        <v>642897137.42153</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1144256391.76723</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>118357529.096166</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2936423794.97406</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1101240339.56656</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2287859273.51028</v>
-      </c>
-      <c r="G9" t="n">
-        <v>22577335292.3594</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>3309824388.27577</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1866525446.42063</v>
-      </c>
-      <c r="L9" t="n">
-        <v>634986429.7848229</v>
-      </c>
-      <c r="M9" t="n">
-        <v>757438910.354255</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>541862961.949453</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1474812341.9127</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>649457466.78087</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1262076278.99826</v>
+        <v>1251362798.17111</v>
       </c>
     </row>
   </sheetData>
